--- a/demo/GreedySearch_LASSO.xlsx
+++ b/demo/GreedySearch_LASSO.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="544">
   <si>
     <t>from</t>
   </si>
@@ -23,108 +23,108 @@
     <t>STB5</t>
   </si>
   <si>
+    <t>FKH2</t>
+  </si>
+  <si>
+    <t>PHD1</t>
+  </si>
+  <si>
+    <t>STP2</t>
+  </si>
+  <si>
     <t>WTM1</t>
   </si>
   <si>
+    <t>TBF1</t>
+  </si>
+  <si>
+    <t>KAR4</t>
+  </si>
+  <si>
+    <t>NDD1</t>
+  </si>
+  <si>
+    <t>SWI4</t>
+  </si>
+  <si>
+    <t>STP4</t>
+  </si>
+  <si>
+    <t>ASH1</t>
+  </si>
+  <si>
+    <t>MET28</t>
+  </si>
+  <si>
+    <t>TEC1</t>
+  </si>
+  <si>
+    <t>GCR1</t>
+  </si>
+  <si>
+    <t>SRD1</t>
+  </si>
+  <si>
+    <t>SWI5</t>
+  </si>
+  <si>
+    <t>CHA4</t>
+  </si>
+  <si>
+    <t>RPI1</t>
+  </si>
+  <si>
+    <t>WTM2</t>
+  </si>
+  <si>
+    <t>MIG2</t>
+  </si>
+  <si>
+    <t>SUT1</t>
+  </si>
+  <si>
+    <t>PLM2</t>
+  </si>
+  <si>
+    <t>YHP1</t>
+  </si>
+  <si>
+    <t>MCM1</t>
+  </si>
+  <si>
+    <t>HCM1</t>
+  </si>
+  <si>
+    <t>RME1</t>
+  </si>
+  <si>
+    <t>TOS4</t>
+  </si>
+  <si>
+    <t>ACE2</t>
+  </si>
+  <si>
+    <t>SWI6</t>
+  </si>
+  <si>
+    <t>FKH1</t>
+  </si>
+  <si>
     <t>RDS2</t>
   </si>
   <si>
-    <t>TBF1</t>
-  </si>
-  <si>
-    <t>KAR4</t>
-  </si>
-  <si>
-    <t>NDD1</t>
-  </si>
-  <si>
-    <t>PHD1</t>
-  </si>
-  <si>
-    <t>PLM2</t>
-  </si>
-  <si>
-    <t>SWI4</t>
-  </si>
-  <si>
-    <t>STP4</t>
-  </si>
-  <si>
-    <t>FKH2</t>
-  </si>
-  <si>
-    <t>ASH1</t>
-  </si>
-  <si>
-    <t>MET28</t>
-  </si>
-  <si>
-    <t>TEC1</t>
-  </si>
-  <si>
-    <t>GCR1</t>
-  </si>
-  <si>
-    <t>SRD1</t>
-  </si>
-  <si>
-    <t>SWI5</t>
-  </si>
-  <si>
-    <t>CHA4</t>
-  </si>
-  <si>
-    <t>RPI1</t>
-  </si>
-  <si>
-    <t>WTM2</t>
-  </si>
-  <si>
-    <t>MIG2</t>
-  </si>
-  <si>
     <t>GAT3</t>
   </si>
   <si>
-    <t>STP2</t>
-  </si>
-  <si>
-    <t>SUT1</t>
-  </si>
-  <si>
-    <t>HCM1</t>
-  </si>
-  <si>
-    <t>TOS4</t>
-  </si>
-  <si>
-    <t>ACE2</t>
-  </si>
-  <si>
-    <t>MCM1</t>
-  </si>
-  <si>
-    <t>RME1</t>
-  </si>
-  <si>
-    <t>SWI6</t>
-  </si>
-  <si>
-    <t>FKH1</t>
-  </si>
-  <si>
-    <t>YHP1</t>
-  </si>
-  <si>
     <t>RAP1</t>
   </si>
   <si>
+    <t>MBP1</t>
+  </si>
+  <si>
     <t>YOX1</t>
   </si>
   <si>
-    <t>MBP1</t>
-  </si>
-  <si>
     <t>AAD10</t>
   </si>
   <si>
@@ -215,9 +215,6 @@
     <t>BNA3</t>
   </si>
   <si>
-    <t>BNI4</t>
-  </si>
-  <si>
     <t>BNI5</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>CAC2</t>
   </si>
   <si>
-    <t>CAR1</t>
-  </si>
-  <si>
     <t>CAR2</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>CDC45</t>
   </si>
   <si>
-    <t>CDC46</t>
-  </si>
-  <si>
     <t>CDC47</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
     <t>CDC54</t>
   </si>
   <si>
-    <t>CDC6</t>
-  </si>
-  <si>
     <t>CDC9</t>
   </si>
   <si>
@@ -296,12 +284,6 @@
     <t>CLB2</t>
   </si>
   <si>
-    <t>CLB5</t>
-  </si>
-  <si>
-    <t>CLB6</t>
-  </si>
-  <si>
     <t>CLN1</t>
   </si>
   <si>
@@ -314,9 +296,6 @@
     <t>CMK2</t>
   </si>
   <si>
-    <t>CNM67</t>
-  </si>
-  <si>
     <t>COQ5</t>
   </si>
   <si>
@@ -371,7 +350,7 @@
     <t>DFG5</t>
   </si>
   <si>
-    <t>DPB2</t>
+    <t>DIP5</t>
   </si>
   <si>
     <t>DSE1</t>
@@ -386,10 +365,7 @@
     <t>DSE4</t>
   </si>
   <si>
-    <t>DSN1</t>
-  </si>
-  <si>
-    <t>DUN1</t>
+    <t>DSF2</t>
   </si>
   <si>
     <t>EBP2</t>
@@ -413,9 +389,6 @@
     <t>ELO1</t>
   </si>
   <si>
-    <t>EMP24</t>
-  </si>
-  <si>
     <t>ENB1</t>
   </si>
   <si>
@@ -446,9 +419,6 @@
     <t>EXG1</t>
   </si>
   <si>
-    <t>EXG2</t>
-  </si>
-  <si>
     <t>EXO1</t>
   </si>
   <si>
@@ -497,9 +467,6 @@
     <t>GAP1</t>
   </si>
   <si>
-    <t>GAS1</t>
-  </si>
-  <si>
     <t>GAS2</t>
   </si>
   <si>
@@ -548,6 +515,9 @@
     <t>GPH1</t>
   </si>
   <si>
+    <t>GPI11</t>
+  </si>
+  <si>
     <t>GSY1</t>
   </si>
   <si>
@@ -674,9 +644,6 @@
     <t>KIN3</t>
   </si>
   <si>
-    <t>KIP1</t>
-  </si>
-  <si>
     <t>KIP2</t>
   </si>
   <si>
@@ -686,12 +653,12 @@
     <t>KRE6</t>
   </si>
   <si>
-    <t>LAC1</t>
-  </si>
-  <si>
     <t>LAP4</t>
   </si>
   <si>
+    <t>LCB3</t>
+  </si>
+  <si>
     <t>LPP1</t>
   </si>
   <si>
@@ -779,9 +746,6 @@
     <t>MYO1</t>
   </si>
   <si>
-    <t>NBP1</t>
-  </si>
-  <si>
     <t>NCE102</t>
   </si>
   <si>
@@ -806,6 +770,9 @@
     <t>NUM1</t>
   </si>
   <si>
+    <t>OCH1</t>
+  </si>
+  <si>
     <t>OGG1</t>
   </si>
   <si>
@@ -824,6 +791,9 @@
     <t>PBI2</t>
   </si>
   <si>
+    <t>PCD1</t>
+  </si>
+  <si>
     <t>PCL1</t>
   </si>
   <si>
@@ -836,6 +806,9 @@
     <t>PCL9</t>
   </si>
   <si>
+    <t>PDR12</t>
+  </si>
+  <si>
     <t>PDR16</t>
   </si>
   <si>
@@ -875,6 +848,9 @@
     <t>PHO5</t>
   </si>
   <si>
+    <t>PHO8</t>
+  </si>
+  <si>
     <t>PHO84</t>
   </si>
   <si>
@@ -926,9 +902,6 @@
     <t>PNC1</t>
   </si>
   <si>
-    <t>POG1</t>
-  </si>
-  <si>
     <t>POL1</t>
   </si>
   <si>
@@ -1019,9 +992,6 @@
     <t>RKM1</t>
   </si>
   <si>
-    <t>RLF2</t>
-  </si>
-  <si>
     <t>RNH201</t>
   </si>
   <si>
@@ -1040,18 +1010,12 @@
     <t>RSR1</t>
   </si>
   <si>
-    <t>RTT109</t>
-  </si>
-  <si>
     <t>RVB1</t>
   </si>
   <si>
     <t>SAM1</t>
   </si>
   <si>
-    <t>SAM3</t>
-  </si>
-  <si>
     <t>SAS3</t>
   </si>
   <si>
@@ -1064,9 +1028,6 @@
     <t>SCW11</t>
   </si>
   <si>
-    <t>SEC28</t>
-  </si>
-  <si>
     <t>SEN34</t>
   </si>
   <si>
@@ -1100,9 +1061,6 @@
     <t>SKN1</t>
   </si>
   <si>
-    <t>SLD2</t>
-  </si>
-  <si>
     <t>SLK19</t>
   </si>
   <si>
@@ -1133,21 +1091,12 @@
     <t>SPC98</t>
   </si>
   <si>
-    <t>SPH1</t>
-  </si>
-  <si>
     <t>SPI1</t>
   </si>
   <si>
     <t>SPO12</t>
   </si>
   <si>
-    <t>SPO16</t>
-  </si>
-  <si>
-    <t>SPT16</t>
-  </si>
-  <si>
     <t>SPT21</t>
   </si>
   <si>
@@ -1172,9 +1121,6 @@
     <t>STE2</t>
   </si>
   <si>
-    <t>STE3</t>
-  </si>
-  <si>
     <t>STR3</t>
   </si>
   <si>
@@ -1235,9 +1181,6 @@
     <t>TNA1</t>
   </si>
   <si>
-    <t>TOF1</t>
-  </si>
-  <si>
     <t>TOF2</t>
   </si>
   <si>
@@ -1280,9 +1223,6 @@
     <t>TUB2</t>
   </si>
   <si>
-    <t>TUB4</t>
-  </si>
-  <si>
     <t>UBX7</t>
   </si>
   <si>
@@ -1295,9 +1235,6 @@
     <t>URH1</t>
   </si>
   <si>
-    <t>UTR2</t>
-  </si>
-  <si>
     <t>VAC17</t>
   </si>
   <si>
@@ -1337,12 +1274,6 @@
     <t>YBL009w</t>
   </si>
   <si>
-    <t>YBL100c</t>
-  </si>
-  <si>
-    <t>YBL112c</t>
-  </si>
-  <si>
     <t>YBR053c</t>
   </si>
   <si>
@@ -1355,9 +1286,6 @@
     <t>YBR094w</t>
   </si>
   <si>
-    <t>YBR138c</t>
-  </si>
-  <si>
     <t>YBR204c</t>
   </si>
   <si>
@@ -1385,9 +1313,6 @@
     <t>YDL096c</t>
   </si>
   <si>
-    <t>YDL156w</t>
-  </si>
-  <si>
     <t>YDL163w</t>
   </si>
   <si>
@@ -1409,7 +1334,7 @@
     <t>YEL068c</t>
   </si>
   <si>
-    <t>YEL075c</t>
+    <t>YEL077c</t>
   </si>
   <si>
     <t>YER152c</t>
@@ -1418,22 +1343,10 @@
     <t>YFL064c</t>
   </si>
   <si>
-    <t>YFL065c</t>
-  </si>
-  <si>
-    <t>YFL066c</t>
-  </si>
-  <si>
-    <t>YFL067w</t>
-  </si>
-  <si>
     <t>YFR039c</t>
   </si>
   <si>
-    <t>YGL101w</t>
-  </si>
-  <si>
-    <t>YGL185c</t>
+    <t>YGR035c</t>
   </si>
   <si>
     <t>YGR042w</t>
@@ -1478,9 +1391,6 @@
     <t>YHR173c</t>
   </si>
   <si>
-    <t>YHR218w</t>
-  </si>
-  <si>
     <t>YHR219w</t>
   </si>
   <si>
@@ -1517,9 +1427,6 @@
     <t>YJL119c</t>
   </si>
   <si>
-    <t>YJL181w</t>
-  </si>
-  <si>
     <t>YJL195c</t>
   </si>
   <si>
@@ -1535,9 +1442,6 @@
     <t>YJR054w</t>
   </si>
   <si>
-    <t>YJR154w</t>
-  </si>
-  <si>
     <t>YKL044w</t>
   </si>
   <si>
@@ -1556,15 +1460,15 @@
     <t>YKR021w</t>
   </si>
   <si>
+    <t>YKR041w</t>
+  </si>
+  <si>
     <t>YKR077w</t>
   </si>
   <si>
     <t>YLL032c</t>
   </si>
   <si>
-    <t>YLL066c</t>
-  </si>
-  <si>
     <t>YLL067c</t>
   </si>
   <si>
@@ -1598,18 +1502,6 @@
     <t>YLR455w</t>
   </si>
   <si>
-    <t>YLR462w</t>
-  </si>
-  <si>
-    <t>YLR463c</t>
-  </si>
-  <si>
-    <t>YLR464w</t>
-  </si>
-  <si>
-    <t>YLR465c</t>
-  </si>
-  <si>
     <t>YML119w</t>
   </si>
   <si>
@@ -1640,7 +1532,7 @@
     <t>YNL058c</t>
   </si>
   <si>
-    <t>YNL165w</t>
+    <t>YNL134c</t>
   </si>
   <si>
     <t>YNL176c</t>
@@ -1727,30 +1619,18 @@
     <t>YPR1</t>
   </si>
   <si>
+    <t>YPR157w</t>
+  </si>
+  <si>
     <t>YPR174c</t>
   </si>
   <si>
-    <t>YPR202w</t>
-  </si>
-  <si>
     <t>YPR203w</t>
   </si>
   <si>
-    <t>YPR204w</t>
-  </si>
-  <si>
-    <t>YPS3</t>
-  </si>
-  <si>
-    <t>YPT11</t>
-  </si>
-  <si>
     <t>YRF1-1</t>
   </si>
   <si>
-    <t>YRF1-2</t>
-  </si>
-  <si>
     <t>YRF1-3</t>
   </si>
   <si>
@@ -1758,12 +1638,6 @@
   </si>
   <si>
     <t>YRF1-5</t>
-  </si>
-  <si>
-    <t>YRF1-6</t>
-  </si>
-  <si>
-    <t>YRF1-7</t>
   </si>
   <si>
     <t>YRO2</t>
@@ -1841,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1854,39 +1728,39 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -1894,10 +1768,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1905,47 +1779,47 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1958,34 +1832,34 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -1993,135 +1867,135 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
@@ -2129,207 +2003,207 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
@@ -2337,79 +2211,79 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -2422,79 +2296,79 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
@@ -2502,138 +2376,138 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103">
@@ -2641,31 +2515,31 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107">
@@ -2673,63 +2547,63 @@
         <v>27</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
@@ -2737,20 +2611,20 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
         <v>103</v>
@@ -2758,255 +2632,255 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B129" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B149" t="s">
         <v>124</v>
@@ -3014,103 +2888,103 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B162" t="s">
         <v>132</v>
@@ -3118,23 +2992,23 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B165" t="s">
         <v>134</v>
@@ -3142,26 +3016,26 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169">
@@ -3174,23 +3048,23 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B172" t="s">
         <v>138</v>
@@ -3198,7 +3072,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
         <v>139</v>
@@ -3206,31 +3080,31 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B177" t="s">
         <v>141</v>
@@ -3238,7 +3112,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
         <v>141</v>
@@ -3246,7 +3120,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
         <v>142</v>
@@ -3254,7 +3128,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
         <v>143</v>
@@ -3262,239 +3136,239 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B190" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B192" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B205" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>156</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B207" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
         <v>157</v>
@@ -3502,7 +3376,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B211" t="s">
         <v>157</v>
@@ -3510,7 +3384,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B212" t="s">
         <v>158</v>
@@ -3518,71 +3392,71 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B214" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
         <v>163</v>
@@ -3598,7 +3472,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
         <v>165</v>
@@ -3606,87 +3480,87 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B224" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B229" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B232" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B234" t="s">
         <v>173</v>
@@ -3694,7 +3568,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B235" t="s">
         <v>174</v>
@@ -3702,7 +3576,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B236" t="s">
         <v>174</v>
@@ -3710,7 +3584,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B237" t="s">
         <v>174</v>
@@ -3718,15 +3592,15 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B238" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B239" t="s">
         <v>175</v>
@@ -3734,215 +3608,215 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B241" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B243" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B246" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B248" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B254" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B255" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B256" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B258" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B262" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B263" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B265" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B266" t="s">
         <v>187</v>
@@ -3950,7 +3824,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
         <v>187</v>
@@ -3958,7 +3832,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B268" t="s">
         <v>187</v>
@@ -3966,7 +3840,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B269" t="s">
         <v>188</v>
@@ -3974,79 +3848,79 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B270" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B272" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B274" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B278" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B279" t="s">
         <v>194</v>
@@ -4054,7 +3928,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B280" t="s">
         <v>195</v>
@@ -4062,7 +3936,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B281" t="s">
         <v>196</v>
@@ -4070,10 +3944,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B282" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="283">
@@ -4081,324 +3955,324 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B284" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B285" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B287" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B288" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B289" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B290" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>201</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B296" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B297" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B298" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B299" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B300" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B301" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B302" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B304" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B305" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B307" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B308" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B309" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B311" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B312" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B314" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B315" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B316" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B317" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B318" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B319" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B320" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B321" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B322" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B323" t="s">
         <v>226</v>
@@ -4406,10 +4280,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B324" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="325">
@@ -4417,12 +4291,12 @@
         <v>5</v>
       </c>
       <c r="B325" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B326" t="s">
         <v>228</v>
@@ -4430,7 +4304,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B327" t="s">
         <v>229</v>
@@ -4438,23 +4312,23 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B328" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B329" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B330" t="s">
         <v>231</v>
@@ -4462,7 +4336,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B331" t="s">
         <v>232</v>
@@ -4470,63 +4344,63 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B333" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B334" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B335" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B339" t="s">
         <v>237</v>
@@ -4534,15 +4408,15 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B340" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B341" t="s">
         <v>238</v>
@@ -4550,7 +4424,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B342" t="s">
         <v>239</v>
@@ -4558,7 +4432,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B343" t="s">
         <v>240</v>
@@ -4566,7 +4440,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B344" t="s">
         <v>240</v>
@@ -4582,7 +4456,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B346" t="s">
         <v>242</v>
@@ -4590,31 +4464,31 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B347" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B348" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B350" t="s">
         <v>243</v>
@@ -4622,7 +4496,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B351" t="s">
         <v>243</v>
@@ -4630,7 +4504,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
         <v>244</v>
@@ -4638,7 +4512,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B353" t="s">
         <v>244</v>
@@ -4646,15 +4520,15 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B355" t="s">
         <v>245</v>
@@ -4662,7 +4536,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B356" t="s">
         <v>246</v>
@@ -4670,7 +4544,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B357" t="s">
         <v>247</v>
@@ -4678,7 +4552,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B358" t="s">
         <v>248</v>
@@ -4686,7 +4560,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B359" t="s">
         <v>249</v>
@@ -4694,15 +4568,15 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B360" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B361" t="s">
         <v>250</v>
@@ -4710,15 +4584,15 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B362" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B363" t="s">
         <v>251</v>
@@ -4726,15 +4600,15 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B364" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B365" t="s">
         <v>252</v>
@@ -4742,7 +4616,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B366" t="s">
         <v>253</v>
@@ -4750,58 +4624,58 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B367" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B368" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B369" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B370" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B371" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B372" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B373" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="374">
@@ -4809,151 +4683,151 @@
         <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B375" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B376" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B377" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B378" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B380" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B381" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B382" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B383" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B384" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B385" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B386" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B387" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B388" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B389" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B390" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B392" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="393">
@@ -4961,28 +4835,28 @@
         <v>13</v>
       </c>
       <c r="B393" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B394" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B396" t="s">
         <v>274</v>
@@ -4990,7 +4864,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B397" t="s">
         <v>275</v>
@@ -4998,7 +4872,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B398" t="s">
         <v>276</v>
@@ -5006,7 +4880,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B399" t="s">
         <v>277</v>
@@ -5014,7 +4888,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B400" t="s">
         <v>278</v>
@@ -5022,167 +4896,167 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B402" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B403" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B404" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B405" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B406" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B407" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B408" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B409" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B410" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B411" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B412" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B413" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B415" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B416" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B417" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B418" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B419" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B420" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B421" t="s">
         <v>292</v>
@@ -5190,31 +5064,31 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B422" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B423" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B424" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B425" t="s">
         <v>294</v>
@@ -5222,15 +5096,15 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>9</v>
+        <v>295</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B427" t="s">
         <v>295</v>
@@ -5238,50 +5112,50 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B428" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B429" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B430" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B431" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B432" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B433" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="434">
@@ -5289,287 +5163,287 @@
         <v>3</v>
       </c>
       <c r="B434" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B435" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B436" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B437" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B438" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B439" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B440" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B441" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B442" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B443" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B444" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B445" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B446" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B447" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B448" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B449" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B450" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B452" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B453" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B454" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B455" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B456" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B457" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B458" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B459" t="s">
-        <v>316</v>
+        <v>34</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B460" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B461" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B462" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B463" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B464" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B465" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B466" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B467" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B468" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B469" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="470">
@@ -5577,79 +5451,79 @@
         <v>10</v>
       </c>
       <c r="B470" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B471" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B472" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B473" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B474" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B475" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B476" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B477" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B478" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B479" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="480">
@@ -5657,431 +5531,431 @@
         <v>6</v>
       </c>
       <c r="B480" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B481" t="s">
-        <v>4</v>
+        <v>334</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B482" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B483" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B484" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B485" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B486" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B487" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B488" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B489" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B490" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B491" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B492" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B493" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B494" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B495" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B496" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B497" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B498" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B499" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B500" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B501" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B502" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B503" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B504" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B505" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B506" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B507" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B508" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B509" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B510" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B511" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B512" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B513" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B514" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B515" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B516" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B517" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B518" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B519" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B520" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B521" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B522" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B523" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B524" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B525" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B526" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B527" t="s">
-        <v>359</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B528" t="s">
-        <v>360</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B529" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B530" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B531" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B532" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B533" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="534">
@@ -6089,148 +5963,148 @@
         <v>10</v>
       </c>
       <c r="B534" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B535" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B536" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B537" t="s">
-        <v>368</v>
+        <v>22</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B538" t="s">
-        <v>369</v>
+        <v>22</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B539" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B540" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B541" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B542" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B543" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B544" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B545" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B546" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B547" t="s">
-        <v>377</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B548" t="s">
-        <v>378</v>
+        <v>17</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B549" t="s">
-        <v>379</v>
+        <v>17</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B550" t="s">
-        <v>380</v>
+        <v>30</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B551" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B552" t="s">
         <v>380</v>
@@ -6238,34 +6112,34 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B553" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B554" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B555" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B556" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="557">
@@ -6273,119 +6147,119 @@
         <v>9</v>
       </c>
       <c r="B557" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B558" t="s">
-        <v>2</v>
+        <v>382</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B559" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B560" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B561" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B562" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B563" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B564" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B565" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B566" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B567" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B568" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B569" t="s">
-        <v>25</v>
+        <v>391</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B570" t="s">
-        <v>25</v>
+        <v>391</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B571" t="s">
-        <v>392</v>
+        <v>28</v>
       </c>
     </row>
     <row r="572">
@@ -6393,212 +6267,212 @@
         <v>21</v>
       </c>
       <c r="B572" t="s">
-        <v>393</v>
+        <v>28</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B573" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B574" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B575" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B576" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B577" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B578" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B580" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B581" t="s">
-        <v>18</v>
+        <v>397</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B582" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B583" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B584" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B585" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B586" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B587" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B588" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B589" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B590" t="s">
-        <v>5</v>
+        <v>401</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B591" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B592" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B593" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B594" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B595" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B596" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B597" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B598" t="s">
         <v>406</v>
@@ -6606,7 +6480,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B599" t="s">
         <v>406</v>
@@ -6614,7 +6488,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B600" t="s">
         <v>407</v>
@@ -6622,7 +6496,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B601" t="s">
         <v>408</v>
@@ -6630,7 +6504,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B602" t="s">
         <v>409</v>
@@ -6638,7 +6512,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B603" t="s">
         <v>410</v>
@@ -6646,162 +6520,162 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B604" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B605" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B606" t="s">
-        <v>27</v>
+        <v>413</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B607" t="s">
-        <v>27</v>
+        <v>414</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B608" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B609" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B610" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B611" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B612" t="s">
-        <v>413</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B613" t="s">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B614" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B615" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B616" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B617" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B618" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B619" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B620" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B621" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B622" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B623" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="624">
@@ -6809,7 +6683,7 @@
         <v>7</v>
       </c>
       <c r="B624" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="625">
@@ -6817,135 +6691,135 @@
         <v>6</v>
       </c>
       <c r="B625" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B626" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B627" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B628" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B629" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B630" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B631" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B632" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B633" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B634" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B635" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B636" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B637" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B638" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B639" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B640" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B641" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="642">
@@ -6953,396 +6827,396 @@
         <v>21</v>
       </c>
       <c r="B642" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B643" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B644" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B645" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B646" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B647" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B648" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B649" t="s">
-        <v>3</v>
+        <v>447</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B650" t="s">
-        <v>21</v>
+        <v>448</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B651" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B652" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B653" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B654" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B655" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B656" t="s">
-        <v>445</v>
+        <v>24</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B657" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B658" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B659" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B660" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B661" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B662" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B663" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B664" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B665" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B666" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B667" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B668" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B669" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B670" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B671" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B672" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B673" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B674" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B675" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B676" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B677" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B678" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B679" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B680" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B681" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B682" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B683" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B684" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B685" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B686" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B687" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B688" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B689" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B690" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B691" t="s">
         <v>477</v>
@@ -7350,7 +7224,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B692" t="s">
         <v>477</v>
@@ -7358,130 +7232,130 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B693" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B695" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B696" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B697" t="s">
-        <v>33</v>
+        <v>479</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B698" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B699" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B700" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B701" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B702" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B703" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B704" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B705" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B706" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B707" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B708" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="709">
@@ -7489,255 +7363,255 @@
         <v>12</v>
       </c>
       <c r="B709" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B710" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B711" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B712" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B713" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B714" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B715" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B716" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B717" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B718" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B719" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B720" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B721" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B722" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B723" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B724" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B725" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B726" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B727" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B728" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B729" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B730" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B731" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B732" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B733" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B734" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B735" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B736" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B737" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B738" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B739" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B740" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="741">
@@ -7745,183 +7619,183 @@
         <v>10</v>
       </c>
       <c r="B741" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B742" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B743" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B744" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B745" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B746" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B747" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B748" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B749" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B750" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B751" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B752" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B753" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B754" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B755" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B756" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B757" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B758" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B759" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B760" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B761" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B762" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B763" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="764">
@@ -7929,103 +7803,103 @@
         <v>12</v>
       </c>
       <c r="B764" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B765" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B766" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B767" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B768" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B769" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B770" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B771" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B772" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B773" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B774" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B775" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B776" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="777">
@@ -8033,71 +7907,71 @@
         <v>36</v>
       </c>
       <c r="B777" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B778" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B779" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B780" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B781" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B782" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B783" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B784" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B785" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="786">
@@ -8105,519 +7979,31 @@
         <v>21</v>
       </c>
       <c r="B786" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B787" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B788" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B789" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="s">
-        <v>35</v>
-      </c>
-      <c r="B790" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="s">
-        <v>22</v>
-      </c>
-      <c r="B791" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="s">
-        <v>19</v>
-      </c>
-      <c r="B792" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="s">
-        <v>24</v>
-      </c>
-      <c r="B793" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="s">
-        <v>10</v>
-      </c>
-      <c r="B794" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="s">
-        <v>8</v>
-      </c>
-      <c r="B795" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="s">
-        <v>16</v>
-      </c>
-      <c r="B796" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="s">
-        <v>13</v>
-      </c>
-      <c r="B797" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="s">
-        <v>13</v>
-      </c>
-      <c r="B798" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="s">
-        <v>3</v>
-      </c>
-      <c r="B799" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="s">
-        <v>16</v>
-      </c>
-      <c r="B800" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="s">
-        <v>5</v>
-      </c>
-      <c r="B801" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="s">
-        <v>24</v>
-      </c>
-      <c r="B802" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="s">
-        <v>19</v>
-      </c>
-      <c r="B803" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="s">
-        <v>2</v>
-      </c>
-      <c r="B804" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="s">
-        <v>11</v>
-      </c>
-      <c r="B805" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="s">
-        <v>18</v>
-      </c>
-      <c r="B806" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="s">
-        <v>33</v>
-      </c>
-      <c r="B807" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="s">
-        <v>31</v>
-      </c>
-      <c r="B808" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="s">
-        <v>21</v>
-      </c>
-      <c r="B809" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="s">
-        <v>13</v>
-      </c>
-      <c r="B810" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="s">
-        <v>12</v>
-      </c>
-      <c r="B811" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="s">
-        <v>13</v>
-      </c>
-      <c r="B812" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="s">
-        <v>13</v>
-      </c>
-      <c r="B813" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="s">
-        <v>26</v>
-      </c>
-      <c r="B814" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="s">
-        <v>13</v>
-      </c>
-      <c r="B815" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="s">
-        <v>19</v>
-      </c>
-      <c r="B816" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="s">
-        <v>13</v>
-      </c>
-      <c r="B817" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="s">
-        <v>7</v>
-      </c>
-      <c r="B818" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="s">
-        <v>12</v>
-      </c>
-      <c r="B819" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="s">
-        <v>19</v>
-      </c>
-      <c r="B820" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="s">
-        <v>14</v>
-      </c>
-      <c r="B821" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="s">
-        <v>24</v>
-      </c>
-      <c r="B822" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="s">
-        <v>13</v>
-      </c>
-      <c r="B823" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="s">
-        <v>2</v>
-      </c>
-      <c r="B824" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="s">
-        <v>19</v>
-      </c>
-      <c r="B825" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="s">
-        <v>34</v>
-      </c>
-      <c r="B826" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="s">
-        <v>24</v>
-      </c>
-      <c r="B827" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="s">
-        <v>5</v>
-      </c>
-      <c r="B828" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="s">
-        <v>4</v>
-      </c>
-      <c r="B829" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="s">
-        <v>4</v>
-      </c>
-      <c r="B830" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="s">
-        <v>4</v>
-      </c>
-      <c r="B831" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="s">
-        <v>12</v>
-      </c>
-      <c r="B832" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="s">
-        <v>4</v>
-      </c>
-      <c r="B833" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="s">
-        <v>31</v>
-      </c>
-      <c r="B834" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="s">
-        <v>4</v>
-      </c>
-      <c r="B835" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="s">
-        <v>4</v>
-      </c>
-      <c r="B836" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="s">
-        <v>24</v>
-      </c>
-      <c r="B837" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="s">
-        <v>7</v>
-      </c>
-      <c r="B838" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="s">
-        <v>29</v>
-      </c>
-      <c r="B839" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="s">
-        <v>4</v>
-      </c>
-      <c r="B840" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="s">
-        <v>4</v>
-      </c>
-      <c r="B841" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="s">
-        <v>4</v>
-      </c>
-      <c r="B842" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="s">
-        <v>19</v>
-      </c>
-      <c r="B843" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="s">
-        <v>31</v>
-      </c>
-      <c r="B844" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="s">
-        <v>28</v>
-      </c>
-      <c r="B845" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="s">
-        <v>15</v>
-      </c>
-      <c r="B846" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="s">
-        <v>33</v>
-      </c>
-      <c r="B847" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="s">
-        <v>16</v>
-      </c>
-      <c r="B848" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="s">
-        <v>7</v>
-      </c>
-      <c r="B849" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="s">
-        <v>26</v>
-      </c>
-      <c r="B850" t="s">
-        <v>585</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
